--- a/cron/files/PruebaCargaAlmacen2.1.xlsx
+++ b/cron/files/PruebaCargaAlmacen2.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10c876a5af77d07b/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10c876a5af77d07b/Desktop/DocumentosExcelPruebas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{664CCDAA-5B2A-4AAB-A770-28D68D4B0C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{664CCDAA-5B2A-4AAB-A770-28D68D4B0C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86464D3A-DA6A-4219-9079-7A96D8D66526}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="2925" windowWidth="17700" windowHeight="11340" xr2:uid="{4B308DF4-8513-4AEE-B098-3F306D23092D}"/>
+    <workbookView xWindow="5040" yWindow="1755" windowWidth="22785" windowHeight="11340" xr2:uid="{4B308DF4-8513-4AEE-B098-3F306D23092D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>tipo</t>
   </si>
@@ -72,15 +72,6 @@
     <t>almacen</t>
   </si>
   <si>
-    <t>346302875</t>
-  </si>
-  <si>
-    <t>V240M</t>
-  </si>
-  <si>
-    <t>GPRS/WIFI</t>
-  </si>
-  <si>
     <t xml:space="preserve">DISPONIBLE-USADO </t>
   </si>
   <si>
@@ -90,16 +81,10 @@
     <t>ALMACEN MTY</t>
   </si>
   <si>
-    <t>346645335</t>
-  </si>
-  <si>
-    <t>346676343</t>
-  </si>
-  <si>
-    <t>346678494</t>
-  </si>
-  <si>
-    <t>346681664</t>
+    <t>8952020220690751536</t>
+  </si>
+  <si>
+    <t>Telcel</t>
   </si>
 </sst>
 </file>
@@ -563,7 +548,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,19 +598,17 @@
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="G2" s="9">
         <v>1</v>
@@ -636,135 +619,63 @@
         <v>1</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="9">
-        <v>1</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="11">
-        <v>1</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>17</v>
-      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="9">
-        <v>1</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="11">
-        <v>1</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>17</v>
-      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="9">
-        <v>1</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="11">
-        <v>1</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>17</v>
-      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="11">
-        <v>1</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>17</v>
-      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
